--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9807.8799999999992</v>
+      </c>
+      <c r="B4">
+        <v>9881</v>
+      </c>
+      <c r="C4">
+        <v>20.3</v>
+      </c>
+      <c r="D4">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-0.74</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42608.640486111108</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,6 +464,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9920.67</v>
+      </c>
+      <c r="B5">
+        <v>9807.8799999999992</v>
+      </c>
+      <c r="C5">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="D5">
+        <v>19.39</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42609.505868055552</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9797.65</v>
+      </c>
+      <c r="B6">
+        <v>9920.67</v>
+      </c>
+      <c r="C6">
+        <v>19.36</v>
+      </c>
+      <c r="D6">
+        <v>19.12</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-1.24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42612.674803240741</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,6 +516,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9880.93</v>
+      </c>
+      <c r="B7">
+        <v>9797.65</v>
+      </c>
+      <c r="C7">
+        <v>18.84</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42613.766956018517</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9901.68</v>
+      </c>
+      <c r="B8">
+        <v>9880.93</v>
+      </c>
+      <c r="C8">
+        <v>18.93</v>
+      </c>
+      <c r="D8">
+        <v>18.97</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42614.675405092596</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9991.7900000000009</v>
+      </c>
+      <c r="B9">
+        <v>9901.68</v>
+      </c>
+      <c r="C9">
+        <v>18.72</v>
+      </c>
+      <c r="D9">
+        <v>18.89</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.91</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42615.752129629633</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.679097222222</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9974</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>19.32</v>
+      </c>
+      <c r="F4">
+        <v>19.22</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-0.52</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +477,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42636.606736111113</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9956.0499999999993</v>
+      </c>
+      <c r="D5">
+        <v>9974</v>
+      </c>
+      <c r="E5">
+        <v>19.29</v>
+      </c>
+      <c r="F5">
+        <v>19.22</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-0.36</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42641.546655092592</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9942.5300000000007</v>
+      </c>
+      <c r="D4">
+        <v>9948</v>
+      </c>
+      <c r="E4">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="F4">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.11</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -448,6 +449,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42644.480810185189</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10020.99</v>
+      </c>
+      <c r="D4">
+        <v>10026.5</v>
+      </c>
+      <c r="E4">
+        <v>17.82</v>
+      </c>
+      <c r="F4">
+        <v>17.84</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.11</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +478,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42647.681840277779</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10104.16</v>
+      </c>
+      <c r="D5">
+        <v>10020.99</v>
+      </c>
+      <c r="E5">
+        <v>18.12</v>
+      </c>
+      <c r="F5">
+        <v>17.97</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-0.83</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,6 +507,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42648.455497685187</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>10125.879999999999</v>
+      </c>
+      <c r="D6">
+        <v>10104.16</v>
+      </c>
+      <c r="E6">
+        <v>18.79</v>
+      </c>
+      <c r="F6">
+        <v>18.87</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.43</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,6 +536,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42650.37127314815</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>10067.15</v>
+      </c>
+      <c r="D7">
+        <v>10125.879999999999</v>
+      </c>
+      <c r="E7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPRandomTrade20.xlsx
@@ -369,21 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -565,6 +565,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42651.516550925924</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10101.879999999999</v>
+      </c>
+      <c r="D8">
+        <v>10067.15</v>
+      </c>
+      <c r="E8">
+        <v>18.940000999999999</v>
+      </c>
+      <c r="F8">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>-0.69</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
